--- a/Table/Table_xls/NPC-复合/z战斗NPC_协战_28xxx.xlsx
+++ b/Table/Table_xls/NPC-复合/z战斗NPC_协战_28xxx.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -26,10 +26,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 战斗中大BOSS显示的血条。和公会BOSS血条类似，但只是客户端显示差别，逻辑上与公会BOS血条有差别。
 默认为空，不使用大血条
 1=使用大血条</t>
@@ -41,10 +42,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 1=主角
 2=宠物
 3=伙伴助战
@@ -60,10 +62,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 1=普通
 2=精英
 3=宝宝
@@ -77,10 +80,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 怪物的偏向类型，可以为空，表示无偏向
 1控制
 2治疗
@@ -95,6 +99,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -118,10 +123,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 等级模式为非4时生效此列</t>
         </r>
       </text>
@@ -131,10 +137,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 等级模式为非4时生效此列</t>
         </r>
       </text>
@@ -144,6 +151,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -158,10 +166,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 当前魔法不能大于最大生命
 最大值一般情况填当前值一样的值</t>
         </r>
@@ -172,10 +181,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 当前魔法不能大于最大生命
 最大值一般情况填当前值一样的值</t>
         </r>
@@ -186,10 +196,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 属性太多，直接填ID和数值，用于一些特殊属性时使用</t>
         </r>
       </text>
@@ -199,10 +210,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 属性太多，直接填ID和数值，用于一些特殊属性时使用</t>
         </r>
       </text>
@@ -212,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>编号</t>
   </si>
@@ -751,12 +763,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -794,13 +806,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -811,6 +816,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,7 +859,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,16 +912,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,22 +928,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,54 +942,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="43">
@@ -1017,7 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1036,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +1096,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,43 +1156,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,79 +1192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,6 +1227,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1231,6 +1253,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,9 +1283,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,197 +1324,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1612,12 +1619,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1944,16 +1946,17 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:ES34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -15044,7 +15047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -15061,7 +15064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
